--- a/acc-v3.xlsx
+++ b/acc-v3.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="30720" windowHeight="13584"/>
   </bookViews>
   <sheets>
     <sheet name="acc-v3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>ari</t>
   </si>
@@ -158,42 +145,124 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -201,23 +270,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -225,96 +278,30 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -328,19 +315,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,157 +387,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +509,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,15 +523,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +543,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -581,6 +568,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,173 +606,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,55 +765,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1021,7 +1008,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1030,7 +1017,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1309,20 +1296,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.1296296296296" customWidth="1"/>
     <col min="2" max="5" width="11.5"/>
-    <col min="8" max="11" width="12.625"/>
+    <col min="8" max="11" width="12.6296296296296"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1347,8 +1335,20 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1382,6 +1382,26 @@
       <c r="K2" s="1">
         <f>AVERAGE(E2:E4)*100</f>
         <v>26.752025</v>
+      </c>
+      <c r="M2" t="str">
+        <f>LEFT(A2,LEN(A2)-3)</f>
+        <v>randsfq_c-movi_c</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(H2,"0.0")&amp;"±"&amp;TEXT(H3,"0.0")</f>
+        <v>65.4±10.7</v>
+      </c>
+      <c r="O2" t="str">
+        <f>TEXT(I2,"0.0")&amp;"±"&amp;TEXT(I3,"0.0")</f>
+        <v>67.4±2.1</v>
+      </c>
+      <c r="P2" t="str">
+        <f>TEXT(J2,"0.0")&amp;"±"&amp;TEXT(J3,"0.0")</f>
+        <v>29.2±3.8</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>TEXT(K2,"0.0")&amp;"±"&amp;TEXT(K3,"0.0")</f>
+        <v>26.8±3.7</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1441,7 +1461,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1475,6 +1495,26 @@
       <c r="K5" s="1">
         <f>AVERAGE(E5:E7)*100</f>
         <v>25.5635036666667</v>
+      </c>
+      <c r="M5" t="str">
+        <f>LEFT(A5,LEN(A5)-3)</f>
+        <v>randsfq_c-movi_d</v>
+      </c>
+      <c r="N5" t="str">
+        <f>TEXT(H5,"0.0")&amp;"±"&amp;TEXT(H6,"0.0")</f>
+        <v>41.6±3.7</v>
+      </c>
+      <c r="O5" t="str">
+        <f>TEXT(I5,"0.0")&amp;"±"&amp;TEXT(I6,"0.0")</f>
+        <v>77.5±1.0</v>
+      </c>
+      <c r="P5" t="str">
+        <f>TEXT(J5,"0.0")&amp;"±"&amp;TEXT(J6,"0.0")</f>
+        <v>27.4±1.0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>TEXT(K5,"0.0")&amp;"±"&amp;TEXT(K6,"0.0")</f>
+        <v>25.6±1.0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1534,7 +1574,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1568,6 +1608,26 @@
       <c r="K8" s="1">
         <f>AVERAGE(E8:E10)*100</f>
         <v>38.9956383333333</v>
+      </c>
+      <c r="M8" t="str">
+        <f>LEFT(A8,LEN(A8)-3)</f>
+        <v>randsfq_r-ytvis</v>
+      </c>
+      <c r="N8" t="str">
+        <f>TEXT(H8,"0.0")&amp;"±"&amp;TEXT(H9,"0.0")</f>
+        <v>41.5±0.1</v>
+      </c>
+      <c r="O8" t="str">
+        <f>TEXT(I8,"0.0")&amp;"±"&amp;TEXT(I9,"0.0")</f>
+        <v>58.9±0.9</v>
+      </c>
+      <c r="P8" t="str">
+        <f>TEXT(J8,"0.0")&amp;"±"&amp;TEXT(J9,"0.0")</f>
+        <v>39.4±0.4</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>TEXT(K8,"0.0")&amp;"±"&amp;TEXT(K9,"0.0")</f>
+        <v>39.0±0.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1627,7 +1687,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1661,6 +1721,26 @@
       <c r="K11" s="1">
         <f>AVERAGE(E11:E13)*100</f>
         <v>26.09012</v>
+      </c>
+      <c r="M11" t="str">
+        <f>LEFT(A11,LEN(A11)-3)</f>
+        <v>randsfq_c-movi_c-tsim</v>
+      </c>
+      <c r="N11" t="str">
+        <f>TEXT(H11,"0.0")&amp;"±"&amp;TEXT(H12,"0.0")</f>
+        <v>64.0±2.9</v>
+      </c>
+      <c r="O11" t="str">
+        <f>TEXT(I11,"0.0")&amp;"±"&amp;TEXT(I12,"0.0")</f>
+        <v>66.3±1.7</v>
+      </c>
+      <c r="P11" t="str">
+        <f>TEXT(J11,"0.0")&amp;"±"&amp;TEXT(J12,"0.0")</f>
+        <v>28.4±1.3</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>TEXT(K11,"0.0")&amp;"±"&amp;TEXT(K12,"0.0")</f>
+        <v>26.1±1.1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1720,7 +1800,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1754,6 +1834,26 @@
       <c r="K14" s="1">
         <f>AVERAGE(E14:E16)*100</f>
         <v>25.4166413333333</v>
+      </c>
+      <c r="M14" t="str">
+        <f>LEFT(A14,LEN(A14)-3)</f>
+        <v>randsfq_c-movi_d-tsim</v>
+      </c>
+      <c r="N14" t="str">
+        <f>TEXT(H14,"0.0")&amp;"±"&amp;TEXT(H15,"0.0")</f>
+        <v>41.2±2.2</v>
+      </c>
+      <c r="O14" t="str">
+        <f>TEXT(I14,"0.0")&amp;"±"&amp;TEXT(I15,"0.0")</f>
+        <v>72.0±1.1</v>
+      </c>
+      <c r="P14" t="str">
+        <f>TEXT(J14,"0.0")&amp;"±"&amp;TEXT(J15,"0.0")</f>
+        <v>27.1±0.9</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>TEXT(K14,"0.0")&amp;"±"&amp;TEXT(K15,"0.0")</f>
+        <v>25.4±0.9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1813,7 +1913,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1847,6 +1947,26 @@
       <c r="K17" s="1">
         <f>AVERAGE(E17:E19)*100</f>
         <v>40.6493873333333</v>
+      </c>
+      <c r="M17" t="str">
+        <f>LEFT(A17,LEN(A17)-3)</f>
+        <v>randsfq_r-ytvis-tsim</v>
+      </c>
+      <c r="N17" t="str">
+        <f>TEXT(H17,"0.0")&amp;"±"&amp;TEXT(H18,"0.0")</f>
+        <v>46.8±0.7</v>
+      </c>
+      <c r="O17" t="str">
+        <f>TEXT(I17,"0.0")&amp;"±"&amp;TEXT(I18,"0.0")</f>
+        <v>60.7±1.7</v>
+      </c>
+      <c r="P17" t="str">
+        <f>TEXT(J17,"0.0")&amp;"±"&amp;TEXT(J18,"0.0")</f>
+        <v>41.5±0.2</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>TEXT(K17,"0.0")&amp;"±"&amp;TEXT(K18,"0.0")</f>
+        <v>40.6±0.1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1906,7 +2026,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1940,6 +2060,26 @@
       <c r="K20" s="1">
         <f>AVERAGE(E20:E22)*100</f>
         <v>25.7681556666667</v>
+      </c>
+      <c r="M20" t="str">
+        <f>LEFT(A20,LEN(A20)-3)</f>
+        <v>slotcontrast_c-movi_c</v>
+      </c>
+      <c r="N20" t="str">
+        <f>TEXT(H20,"0.0")&amp;"±"&amp;TEXT(H21,"0.0")</f>
+        <v>64.6±9.4</v>
+      </c>
+      <c r="O20" t="str">
+        <f>TEXT(I20,"0.0")&amp;"±"&amp;TEXT(I21,"0.0")</f>
+        <v>59.9±5.3</v>
+      </c>
+      <c r="P20" t="str">
+        <f>TEXT(J20,"0.0")&amp;"±"&amp;TEXT(J21,"0.0")</f>
+        <v>27.7±3.0</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>TEXT(K20,"0.0")&amp;"±"&amp;TEXT(K21,"0.0")</f>
+        <v>25.8±2.9</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1999,7 +2139,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2033,6 +2173,26 @@
       <c r="K23" s="1">
         <f>AVERAGE(E23:E25)*100</f>
         <v>25.0547363333333</v>
+      </c>
+      <c r="M23" t="str">
+        <f>LEFT(A23,LEN(A23)-3)</f>
+        <v>slotcontrast_c-movi_d</v>
+      </c>
+      <c r="N23" t="str">
+        <f>TEXT(H23,"0.0")&amp;"±"&amp;TEXT(H24,"0.0")</f>
+        <v>45.3±4.1</v>
+      </c>
+      <c r="O23" t="str">
+        <f>TEXT(I23,"0.0")&amp;"±"&amp;TEXT(I24,"0.0")</f>
+        <v>63.9±0.2</v>
+      </c>
+      <c r="P23" t="str">
+        <f>TEXT(J23,"0.0")&amp;"±"&amp;TEXT(J24,"0.0")</f>
+        <v>26.7±1.0</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>TEXT(K23,"0.0")&amp;"±"&amp;TEXT(K24,"0.0")</f>
+        <v>25.1±1.0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2092,7 +2252,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2126,6 +2286,26 @@
       <c r="K26" s="1">
         <f>AVERAGE(E26:E28)*100</f>
         <v>34.3572813333333</v>
+      </c>
+      <c r="M26" t="str">
+        <f>LEFT(A26,LEN(A26)-3)</f>
+        <v>slotcontrast_r-ytvis</v>
+      </c>
+      <c r="N26" t="str">
+        <f>TEXT(H26,"0.0")&amp;"±"&amp;TEXT(H27,"0.0")</f>
+        <v>38.1±0.7</v>
+      </c>
+      <c r="O26" t="str">
+        <f>TEXT(I26,"0.0")&amp;"±"&amp;TEXT(I27,"0.0")</f>
+        <v>48.8±1.5</v>
+      </c>
+      <c r="P26" t="str">
+        <f>TEXT(J26,"0.0")&amp;"±"&amp;TEXT(J27,"0.0")</f>
+        <v>34.5±0.3</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>TEXT(K26,"0.0")&amp;"±"&amp;TEXT(K27,"0.0")</f>
+        <v>34.4±0.2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2185,7 +2365,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2219,6 +2399,26 @@
       <c r="K29" s="1">
         <f>AVERAGE(E29:E31)*100</f>
         <v>14.8180583333333</v>
+      </c>
+      <c r="M29" t="str">
+        <f>LEFT(A29,LEN(A29)-3)</f>
+        <v>videosaur_c-movi_c</v>
+      </c>
+      <c r="N29" t="str">
+        <f>TEXT(H29,"0.0")&amp;"±"&amp;TEXT(H30,"0.0")</f>
+        <v>41.9±1.1</v>
+      </c>
+      <c r="O29" t="str">
+        <f>TEXT(I29,"0.0")&amp;"±"&amp;TEXT(I30,"0.0")</f>
+        <v>53.3±2.1</v>
+      </c>
+      <c r="P29" t="str">
+        <f>TEXT(J29,"0.0")&amp;"±"&amp;TEXT(J30,"0.0")</f>
+        <v>16.1±0.4</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>TEXT(K29,"0.0")&amp;"±"&amp;TEXT(K30,"0.0")</f>
+        <v>14.8±0.4</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2278,7 +2478,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2312,6 +2512,26 @@
       <c r="K32" s="1">
         <f>AVERAGE(E32:E34)*100</f>
         <v>10.7889383333333</v>
+      </c>
+      <c r="M32" t="str">
+        <f>LEFT(A32,LEN(A32)-3)</f>
+        <v>videosaur_c-movi_d</v>
+      </c>
+      <c r="N32" t="str">
+        <f>TEXT(H32,"0.0")&amp;"±"&amp;TEXT(H33,"0.0")</f>
+        <v>22.5±5.0</v>
+      </c>
+      <c r="O32" t="str">
+        <f>TEXT(I32,"0.0")&amp;"±"&amp;TEXT(I33,"0.0")</f>
+        <v>40.0±20.1</v>
+      </c>
+      <c r="P32" t="str">
+        <f>TEXT(J32,"0.0")&amp;"±"&amp;TEXT(J33,"0.0")</f>
+        <v>11.6±6.6</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>TEXT(K32,"0.0")&amp;"±"&amp;TEXT(K33,"0.0")</f>
+        <v>10.8±6.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2371,7 +2591,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2405,6 +2625,26 @@
       <c r="K35" s="1">
         <f>AVERAGE(E35:E37)*100</f>
         <v>30.9042116666667</v>
+      </c>
+      <c r="M35" t="str">
+        <f>LEFT(A35,LEN(A35)-3)</f>
+        <v>videosaur_r-ytvis</v>
+      </c>
+      <c r="N35" t="str">
+        <f>TEXT(H35,"0.0")&amp;"±"&amp;TEXT(H36,"0.0")</f>
+        <v>34.4±0.6</v>
+      </c>
+      <c r="O35" t="str">
+        <f>TEXT(I35,"0.0")&amp;"±"&amp;TEXT(I36,"0.0")</f>
+        <v>48.9±0.6</v>
+      </c>
+      <c r="P35" t="str">
+        <f>TEXT(J35,"0.0")&amp;"±"&amp;TEXT(J36,"0.0")</f>
+        <v>31.1±0.3</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>TEXT(K35,"0.0")&amp;"±"&amp;TEXT(K36,"0.0")</f>
+        <v>30.9±0.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
